--- a/Database/bangla_words.xlsx
+++ b/Database/bangla_words.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Umar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Umar\Desktop\naati\naati_trainer\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C78E0CF-D44F-4777-8040-9DFAC089C70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39127F3F-3A63-465C-A5A6-031B15A8FF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{E651D84E-CBB2-48BA-836D-A227A9AD1B5A}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="10890" xr2:uid="{E651D84E-CBB2-48BA-836D-A227A9AD1B5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4772" uniqueCount="4407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4774" uniqueCount="4409">
   <si>
     <t>English</t>
   </si>
@@ -13257,6 +13257,12 @@
   </si>
   <si>
     <t>chiriyakhana</t>
+  </si>
+  <si>
+    <t>pulse</t>
+  </si>
+  <si>
+    <t>spondon</t>
   </si>
 </sst>
 </file>
@@ -13637,10 +13643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF311990-7EF0-4720-B1DA-2C12DAFEE88B}">
-  <dimension ref="A1:C2388"/>
+  <dimension ref="A1:C2389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2355" workbookViewId="0">
-      <selection activeCell="A2389" sqref="A2389"/>
+    <sheetView tabSelected="1" topLeftCell="A2376" workbookViewId="0">
+      <selection activeCell="B2389" sqref="B2389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32747,6 +32753,14 @@
         <v>4406</v>
       </c>
     </row>
+    <row r="2389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2389" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>4408</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/bangla_words.xlsx
+++ b/Database/bangla_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nabeeb\Development\WebStorm_Projects\naati_trainer\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2253C20-2F51-4C15-A254-8F1057540D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1793E643-5114-46B4-AE78-88391E239D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4779" uniqueCount="4416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="4420">
   <si>
     <t>English</t>
   </si>
@@ -13268,6 +13268,18 @@
   </si>
   <si>
     <t>dayer kora</t>
+  </si>
+  <si>
+    <t>support services</t>
+  </si>
+  <si>
+    <t>shohoyta porishebadi</t>
+  </si>
+  <si>
+    <t>rehabilitation</t>
+  </si>
+  <si>
+    <t>punorbashon</t>
   </si>
 </sst>
 </file>
@@ -13630,10 +13642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2392"/>
+  <dimension ref="A1:B2394"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2370" workbookViewId="0">
-      <selection activeCell="B2392" sqref="B2392"/>
+      <selection activeCell="E2394" sqref="E2394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32765,6 +32777,22 @@
         <v>4415</v>
       </c>
     </row>
+    <row r="2393" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2393" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2394" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B2394" t="s">
+        <v>4419</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Database/bangla_words.xlsx
+++ b/Database/bangla_words.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2392"/>
+  <dimension ref="A1:B2394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29121,6 +29121,30 @@
         </is>
       </c>
     </row>
+    <row r="2393">
+      <c r="A2393" t="inlineStr">
+        <is>
+          <t>plaintiff</t>
+        </is>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>obhijokta</t>
+        </is>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="inlineStr">
+        <is>
+          <t>claimant</t>
+        </is>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>dabidar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
